--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-06_beg.xlsx
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   So that's the "Rhodes Island" that I've been hearing so much about? Heh... How heroic.
+    <t xml:space="preserve">[name="???"]   So that's the 'Rhodes Island' that I've been hearing so much about? Heh... How heroic.
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  "Boiling dark clouds, tumbling in flames..."
+    <t xml:space="preserve">[name="Nearl"]  'Boiling dark clouds, tumbling in flames...'
 </t>
   </si>
   <si>
@@ -632,15 +632,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  "...As terror strips away their voices, the land falls into silence."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  "The titanic Originium lowers its head..."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  "...and falls upon the scorched shadow of death."
+    <t xml:space="preserve">[name="???"]  '...As terror strips away their voices, the land falls into silence.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  'The titanic Originium lowers its head...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  '...and falls upon the scorched shadow of death.'
 </t>
   </si>
   <si>
